--- a/biology/Botanique/Parc_Yildiz/Parc_Yildiz.xlsx
+++ b/biology/Botanique/Parc_Yildiz/Parc_Yildiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Yıldız est un parc historique situé dans le district de Beşiktaş à Istanbul. La rue Palanga, qui s'étend de Balmumcu à Ortaköy, forme la frontière nord et est, et la rue Çırağan, qui s'étend d'Ortaköy à Beşiktaş, forme la frontière sud. Le parc Yıldız, qui a deux portes séparées, l'une dans la rue Palanga et l'autre dans la rue Çırağan, possède deux pavillons appelées Pavillon de Malte et Pavillon Çadır.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a commencé à prendre de l’importance pendant la période ottomane, notamment au début des années 1600. A cette époque, les terres nommées Jardin Kazancıoğlu et appartenant à cette famille furent achetées par le Sultan Mourad IV. Il a été acheté par Mourad et offert à sa fille Kaya Sultan. À l'époque des tulipes, il est devenu le lieu de divers divertissements lors des orgies Çırağan organisées selon le goût de la décoration. L'espace vert, qui était d'abord l'arrière-cour du palais Çırağan, puis le bois extérieur du Palais de Yıldız, agrandi en 1877, s'est appelé après 1940 le parc Yıldız.
 Le manoir Şale, qui a été cédé à un opérateur italien en 1925 et utilisé comme casino, a été retiré à cet opérateur avec l'intervention d'Atatürk. 
